--- a/数据整理/stocks/A股/创业板/300636-同和药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300636-同和药业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008618</t>
+          <t>002871</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>永赢医药健康股票A</t>
+          <t>华夏智胜价值成长股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>85.16</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008619</t>
+          <t>008618</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢医药健康股票C</t>
+          <t>永赢医药健康股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>85.16</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.18</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002871</t>
+          <t>008619</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏智胜价值成长股票A</t>
+          <t>永赢医药健康股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.28</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.70</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -660,15 +720,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>36.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.74</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.86</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7880</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>020026</t>
+          <t>008415</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰成长优选混合</t>
+          <t>国泰大制造两年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>21.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9776</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519606</t>
+          <t>007835</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰金鑫股票</t>
+          <t>国泰鑫睿混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6500</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008618</t>
+          <t>020026</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>永赢医药健康股票A</t>
+          <t>国泰成长优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4173</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008619</t>
+          <t>519606</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>永赢医药健康股票C</t>
+          <t>国泰金鑫股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2684</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -790,26 +900,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007835</t>
+          <t>008618</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰鑫睿混合</t>
+          <t>永赢医药健康股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>79.30</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -818,26 +938,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008415</t>
+          <t>008619</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰大制造两年持有期混合</t>
+          <t>永赢医药健康股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300636-同和药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300636-同和药业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7952</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4301</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3629</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2341</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300636-同和药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300636-同和药业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1258,4 +1259,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7853</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300636-同和药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300636-同和药业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300636-同和药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300636-同和药业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1362,7 +1363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,17 +1374,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1393,14 +1414,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.79</v>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7894</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1409,14 +1452,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.89</v>
       </c>
     </row>
     <row r="4">
@@ -1425,14 +1490,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.15</v>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1441,13 +1528,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300636-同和药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300636-同和药业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1609,7 +1610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,17 +1621,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1640,14 +1661,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6609</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1656,14 +1699,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.79</v>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4655</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1672,14 +1737,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.89</v>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3103</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1688,14 +1775,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.15</v>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2904</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1704,13 +1813,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300636-同和药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300636-同和药业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1932,7 +1933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1943,17 +1944,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1963,14 +1984,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.9</v>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1939</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1979,14 +2022,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1995,14 +2060,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.79</v>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2011,14 +2098,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.89</v>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2027,14 +2136,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.15</v>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2043,13 +2174,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300636-同和药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300636-同和药业.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,209 +457,547 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002871</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏智胜价值成长股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0785</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008618</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>永赢医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.16</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0543</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008619</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>永赢医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002872</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏智胜价值成长股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>4</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.15</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1939</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -686,7 +1024,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -716,36 +1054,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>320003</t>
+          <t>008415</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安先锋混合</t>
+          <t>国泰大制造两年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.79</t>
+          <t>23.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>92.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7880</t>
+          <t>0.6609</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -754,36 +1092,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008415</t>
+          <t>020010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰大制造两年持有期混合</t>
+          <t>国泰金牛创新混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.87</t>
+          <t>16.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>84.21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9776</t>
+          <t>0.4655</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -792,36 +1130,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007835</t>
+          <t>011466</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰鑫睿混合</t>
+          <t>兴业医疗保健混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.43</t>
+          <t>7.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.30</t>
+          <t>84.68</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6500</t>
+          <t>0.3103</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -840,22 +1178,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.70</t>
+          <t>8.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4173</t>
+          <t>0.2904</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -868,36 +1206,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519606</t>
+          <t>011467</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰金鑫股票</t>
+          <t>兴业医疗保健混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>84.68</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2684</t>
+          <t>0.0970</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -916,26 +1254,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>90.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0327</t>
+          <t>0.0512</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -954,26 +1292,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>90.10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0259</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -981,7 +1319,347 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7894</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7853</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1265,347 +1943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008415</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰大制造两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.42</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7853</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008415</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰大制造两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>27.60</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7894</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008618</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>永赢医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.63</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1250</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002938</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中银证券健康产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.81</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0431</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004890</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中邮健康文娱灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0262</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008619</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>永赢医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.63</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0182</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1632,7 +1970,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1662,36 +2000,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008415</t>
+          <t>320003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰大制造两年持有期混合</t>
+          <t>诺安先锋混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.19</t>
+          <t>36.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.05</t>
+          <t>91.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6609</t>
+          <t>1.7880</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1700,36 +2038,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>020010</t>
+          <t>008415</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰金牛创新混合</t>
+          <t>国泰大制造两年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.99</t>
+          <t>21.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.21</t>
+          <t>92.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4655</t>
+          <t>0.9776</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1738,36 +2076,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011466</t>
+          <t>007835</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴业医疗保健混合A</t>
+          <t>国泰鑫睿混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.68</t>
+          <t>79.30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3103</t>
+          <t>0.6500</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1786,22 +2124,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2904</t>
+          <t>0.4173</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1814,36 +2152,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011467</t>
+          <t>519606</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴业医疗保健混合C</t>
+          <t>国泰金鑫股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.68</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0970</t>
+          <t>0.2684</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1862,26 +2200,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>89.77</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0512</t>
+          <t>0.0327</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1900,424 +2238,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>89.77</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0259</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011466</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴业医疗保健混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1939</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002938</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中银证券健康产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1416</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002300</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长盛医疗行业量化配置股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.29</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1395</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011467</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴业医疗保健混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.25</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0890</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008618</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>永赢医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.70</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0670</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000684</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长盛养老健康产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.26</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0652</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002934</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰康恒泰回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>28.01</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0600</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008619</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>永赢医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.70</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0426</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002935</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泰康恒泰回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>28.01</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0360</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2331,144 +2271,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.9</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.15</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.15</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300636-同和药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300636-同和药业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.83</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>1.9</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
         <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.79</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.89</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>4.15</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2487</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -997,7 +1222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1319,7 +1544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1565,7 +1790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1659,7 +1884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1943,7 +2168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2265,7 +2490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300636-同和药业.xlsx
+++ b/数据整理/stocks/A股/创业板/300636-同和药业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.43</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.83</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>1.9</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
         <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.79</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1.89</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>4.15</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -616,7 +633,1107 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5422</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7801</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7637</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3714</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3702</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3256</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3243</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012160</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2882</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2357</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012159</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1495</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>151002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河收益混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>42.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>42.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015666</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银河医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -824,7 +1941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1222,7 +2339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1544,7 +2661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1790,7 +2907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1884,7 +3001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2168,7 +3285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2488,212 +3605,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002871</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏智胜价值成长股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0785</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008618</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>永赢医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.16</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0543</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008619</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>永赢医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002872</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏智胜价值成长股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>